--- a/0-varios/Archivos-Office/Banco_de_imágenes.xlsx
+++ b/0-varios/Archivos-Office/Banco_de_imágenes.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\1. Proyectos Web\ELC-Peliculas\0-varios\Archivos-Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Imágenes" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja" sheetId="3" r:id="rId1"/>
+    <sheet name="Días" sheetId="2" r:id="rId2"/>
+    <sheet name="BD" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Imágenes!$A$1:$C$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BD!$A$1:$C$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja!$C$1:$C$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
   <si>
     <t>DíaDelMes</t>
   </si>
@@ -125,9 +128,6 @@
     <t>Santo Domingo de Guzmán</t>
   </si>
   <si>
-    <t>Santa Teresa Benedicta de la Cruz (Edith Stein)</t>
-  </si>
-  <si>
     <t>Santa Clara de Asís</t>
   </si>
   <si>
@@ -188,9 +188,6 @@
     <t>San Francisco Javier</t>
   </si>
   <si>
-    <t>San Juan Diego Cuauhtlatoatzin</t>
-  </si>
-  <si>
     <t>Nuestra Señora de Guadalupe</t>
   </si>
   <si>
@@ -198,6 +195,39 @@
   </si>
   <si>
     <t>Santo Tomás Becket</t>
+  </si>
+  <si>
+    <t>29/feb</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>mes_id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>Santa Teresa Benedicta de la Cruz</t>
+  </si>
+  <si>
+    <t>San Juan Diego</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>dia del año</t>
+  </si>
+  <si>
+    <t>orden</t>
   </si>
 </sst>
 </file>
@@ -233,8 +263,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,11 +549,5981 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>241</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2" t="str">
+        <f>MID(A2,FIND(" ",A2)+1,99)</f>
+        <v>Agustín</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>231</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="str">
+        <f>MID(A3,FIND(" ",A3)+1,99)</f>
+        <v>Alberto Hurtado</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>165</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="str">
+        <f>MID(A4,FIND(" ",A4)+1,99)</f>
+        <v>Antonio de Padua</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <f>MID(A5,FIND(" ",A5)+1,99)</f>
+        <v>Bernardita Soubirous</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="str">
+        <f>MID(A6,FIND(" ",A6)+1,99)</f>
+        <v>Catalina de Siena</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>239</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="str">
+        <f>MID(A7,FIND(" ",A7)+1,99)</f>
+        <v>Ceferino Namuncurá</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>224</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="str">
+        <f>MID(A8,FIND(" ",A8)+1,99)</f>
+        <v>Clara de Asís</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="str">
+        <f>MID(A9,FIND(" ",A9)+1,99)</f>
+        <v>Damián de Molokai</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>360</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" t="str">
+        <f>MID(A10,FIND(" ",A10)+1,99)</f>
+        <v>del Señor</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>221</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="str">
+        <f>MID(A11,FIND(" ",A11)+1,99)</f>
+        <v>Domingo de Guzmán</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>147</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="str">
+        <f>MID(A12,FIND(" ",A12)+1,99)</f>
+        <v>Felipe Neri</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>278</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="str">
+        <f>MID(A13,FIND(" ",A13)+1,99)</f>
+        <v>Francisco de Asís</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>338</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="str">
+        <f>MID(A14,FIND(" ",A14)+1,99)</f>
+        <v>Francisco Javier</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>261</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="str">
+        <f>MID(A15,FIND(" ",A15)+1,99)</f>
+        <v>Hildegarda de Bingen</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>213</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="str">
+        <f>MID(A16,FIND(" ",A16)+1,99)</f>
+        <v>Ignacio de Loyola</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <f>MID(A17,FIND(" ",A17)+1,99)</f>
+        <v>Isabel Bayley Seton</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>186</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="str">
+        <f>MID(A18,FIND(" ",A18)+1,99)</f>
+        <v>Isabel de Portugal</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>136</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="str">
+        <f>MID(A19,FIND(" ",A19)+1,99)</f>
+        <v>Isidro Labrador</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>262</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" t="str">
+        <f>MID(A20,FIND(" ",A20)+1,99)</f>
+        <v>José de Cupertino</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>98</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="str">
+        <f>MID(A21,FIND(" ",A21)+1,99)</f>
+        <v>Juan Bautista de la Salle</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <f>MID(A22,FIND(" ",A22)+1,99)</f>
+        <v>Juan Bosco</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <v>344</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23" t="str">
+        <f>MID(A23,FIND(" ",A23)+1,99)</f>
+        <v>Juan Diego</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>217</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24" t="str">
+        <f>MID(A24,FIND(" ",A24)+1,99)</f>
+        <v>Juan María Vianney</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>285</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" t="str">
+        <f>MID(A25,FIND(" ",A25)+1,99)</f>
+        <v>Juan XXIII</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>151</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="str">
+        <f>MID(A26,FIND(" ",A26)+1,99)</f>
+        <v>Juana de Arco</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>132</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="str">
+        <f>MID(A27,FIND(" ",A27)+1,99)</f>
+        <v>Mamerto Esquiú</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>279</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="str">
+        <f>MID(A28,FIND(" ",A28)+1,99)</f>
+        <v>María Faustina Kowalska</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>188</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29" t="str">
+        <f>MID(A29,FIND(" ",A29)+1,99)</f>
+        <v>María Goretti</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>227</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" t="str">
+        <f>MID(A30,FIND(" ",A30)+1,99)</f>
+        <v>Maximiliano Kolbe</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="str">
+        <f>MID(A31,FIND(" ",A31)+1,99)</f>
+        <v>Óscar Arnulfo Romero</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>267</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" t="str">
+        <f>MID(A32,FIND(" ",A32)+1,99)</f>
+        <v>Pio de Pietrelcina</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="str">
+        <f>MID(A33,FIND(" ",A33)+1,99)</f>
+        <v>Policarpo</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>143</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="str">
+        <f>MID(A34,FIND(" ",A34)+1,99)</f>
+        <v>Rita de Cascia</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>243</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" t="str">
+        <f>MID(A35,FIND(" ",A35)+1,99)</f>
+        <v>Rosa de Lima</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36">
+        <v>347</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36" t="str">
+        <f>MID(A36,FIND(" ",A36)+1,99)</f>
+        <v>Señora de Guadalupe</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <v>222</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="str">
+        <f>MID(A37,FIND(" ",A37)+1,99)</f>
+        <v>Teresa Benedicta de la Cruz</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>289</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" t="str">
+        <f>MID(A38,FIND(" ",A38)+1,99)</f>
+        <v>Teresa de Ávila</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>249</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39" t="str">
+        <f>MID(A39,FIND(" ",A39)+1,99)</f>
+        <v>Teresa de Calcuta</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>195</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="str">
+        <f>MID(A40,FIND(" ",A40)+1,99)</f>
+        <v>Teresa de Los Andes</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>275</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41" t="str">
+        <f>MID(A41,FIND(" ",A41)+1,99)</f>
+        <v>Teresa del Niño Jesús</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>364</v>
+      </c>
+      <c r="C42">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42" t="str">
+        <f>MID(A42,FIND(" ",A42)+1,99)</f>
+        <v>Tomás Becket</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>174</v>
+      </c>
+      <c r="C43">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43" t="str">
+        <f>MID(A43,FIND(" ",A43)+1,99)</f>
+        <v>Tomás Moro</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>271</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44" t="str">
+        <f>MID(A44,FIND(" ",A44)+1,99)</f>
+        <v>Vicente de Paul</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C44"/>
+  <sortState ref="A2:E44">
+    <sortCondition ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D367"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44612</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44616</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>26</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>27</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>28</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44633</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>23</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>26</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44646</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>44647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>28</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>29</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1">
+        <v>44650</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>31</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1">
+        <v>44654</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>14</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>15</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1">
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108" s="1">
+        <v>44667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1">
+        <v>44668</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110" s="1">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111" s="1">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112" s="1">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113" s="1">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>22</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114" s="1">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1">
+        <v>44674</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>24</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116" s="1">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117" s="1">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>26</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118" s="1">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>28</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120" s="1">
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121" s="1">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123" s="1">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124" s="1">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125" s="1">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126" s="1">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127" s="1">
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128" s="1">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>8</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130" s="1">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>9</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131" s="1">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>11</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133" s="1">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>12</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134" s="1">
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135" s="1">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136" s="1">
+        <v>44695</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>15</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137" s="1">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>16</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138" s="1">
+        <v>44697</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>17</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139" s="1">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>18</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140" s="1">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>19</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141" s="1">
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>20</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>21</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+      <c r="D143" s="1">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>22</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144" s="1">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>23</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145" s="1">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>24</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>25</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147" s="1">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>26</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148" s="1">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>27</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149" s="1">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>28</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="D150" s="1">
+        <v>44709</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>29</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151" s="1">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>30</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="D152" s="1">
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>31</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+      <c r="D153" s="1">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154" s="1">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
+      <c r="D155" s="1">
+        <v>44714</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156" s="1">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157" s="1">
+        <v>44716</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158" s="1">
+        <v>44717</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>6</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159" s="1">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160" s="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161" s="1">
+        <v>44720</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>9</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+      <c r="D162" s="1">
+        <v>44721</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163" s="1">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>11</v>
+      </c>
+      <c r="C164">
+        <v>6</v>
+      </c>
+      <c r="D164" s="1">
+        <v>44723</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>12</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+      <c r="D165" s="1">
+        <v>44724</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>13</v>
+      </c>
+      <c r="C166">
+        <v>6</v>
+      </c>
+      <c r="D166" s="1">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>14</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167" s="1">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>15</v>
+      </c>
+      <c r="C168">
+        <v>6</v>
+      </c>
+      <c r="D168" s="1">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>16</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
+      </c>
+      <c r="D169" s="1">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>17</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170" s="1">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>18</v>
+      </c>
+      <c r="C171">
+        <v>6</v>
+      </c>
+      <c r="D171" s="1">
+        <v>44730</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>19</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+      <c r="D172" s="1">
+        <v>44731</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>20</v>
+      </c>
+      <c r="C173">
+        <v>6</v>
+      </c>
+      <c r="D173" s="1">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>21</v>
+      </c>
+      <c r="C174">
+        <v>6</v>
+      </c>
+      <c r="D174" s="1">
+        <v>44733</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>22</v>
+      </c>
+      <c r="C175">
+        <v>6</v>
+      </c>
+      <c r="D175" s="1">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>23</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+      <c r="D176" s="1">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>24</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="D177" s="1">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>25</v>
+      </c>
+      <c r="C178">
+        <v>6</v>
+      </c>
+      <c r="D178" s="1">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>26</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+      <c r="D179" s="1">
+        <v>44738</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>27</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+      <c r="D180" s="1">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>28</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+      <c r="D181" s="1">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>29</v>
+      </c>
+      <c r="C182">
+        <v>6</v>
+      </c>
+      <c r="D182" s="1">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>30</v>
+      </c>
+      <c r="C183">
+        <v>6</v>
+      </c>
+      <c r="D183" s="1">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>7</v>
+      </c>
+      <c r="D184" s="1">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <v>7</v>
+      </c>
+      <c r="D185" s="1">
+        <v>44744</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>7</v>
+      </c>
+      <c r="D186" s="1">
+        <v>44745</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
+      </c>
+      <c r="D187" s="1">
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+      <c r="D188" s="1">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>7</v>
+      </c>
+      <c r="D189" s="1">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7</v>
+      </c>
+      <c r="C190">
+        <v>7</v>
+      </c>
+      <c r="D190" s="1">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>8</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+      <c r="D191" s="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192">
+        <v>7</v>
+      </c>
+      <c r="D192" s="1">
+        <v>44751</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>10</v>
+      </c>
+      <c r="C193">
+        <v>7</v>
+      </c>
+      <c r="D193" s="1">
+        <v>44752</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>11</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+      <c r="D194" s="1">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>12</v>
+      </c>
+      <c r="C195">
+        <v>7</v>
+      </c>
+      <c r="D195" s="1">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>13</v>
+      </c>
+      <c r="C196">
+        <v>7</v>
+      </c>
+      <c r="D196" s="1">
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>14</v>
+      </c>
+      <c r="C197">
+        <v>7</v>
+      </c>
+      <c r="D197" s="1">
+        <v>44756</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>15</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+      <c r="D198" s="1">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>16</v>
+      </c>
+      <c r="C199">
+        <v>7</v>
+      </c>
+      <c r="D199" s="1">
+        <v>44758</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>17</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200" s="1">
+        <v>44759</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>18</v>
+      </c>
+      <c r="C201">
+        <v>7</v>
+      </c>
+      <c r="D201" s="1">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>19</v>
+      </c>
+      <c r="C202">
+        <v>7</v>
+      </c>
+      <c r="D202" s="1">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>20</v>
+      </c>
+      <c r="C203">
+        <v>7</v>
+      </c>
+      <c r="D203" s="1">
+        <v>44762</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>21</v>
+      </c>
+      <c r="C204">
+        <v>7</v>
+      </c>
+      <c r="D204" s="1">
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>22</v>
+      </c>
+      <c r="C205">
+        <v>7</v>
+      </c>
+      <c r="D205" s="1">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>23</v>
+      </c>
+      <c r="C206">
+        <v>7</v>
+      </c>
+      <c r="D206" s="1">
+        <v>44765</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>24</v>
+      </c>
+      <c r="C207">
+        <v>7</v>
+      </c>
+      <c r="D207" s="1">
+        <v>44766</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>25</v>
+      </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+      <c r="D208" s="1">
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>26</v>
+      </c>
+      <c r="C209">
+        <v>7</v>
+      </c>
+      <c r="D209" s="1">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>27</v>
+      </c>
+      <c r="C210">
+        <v>7</v>
+      </c>
+      <c r="D210" s="1">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>28</v>
+      </c>
+      <c r="C211">
+        <v>7</v>
+      </c>
+      <c r="D211" s="1">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>29</v>
+      </c>
+      <c r="C212">
+        <v>7</v>
+      </c>
+      <c r="D212" s="1">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>30</v>
+      </c>
+      <c r="C213">
+        <v>7</v>
+      </c>
+      <c r="D213" s="1">
+        <v>44772</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>31</v>
+      </c>
+      <c r="C214">
+        <v>7</v>
+      </c>
+      <c r="D214" s="1">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>8</v>
+      </c>
+      <c r="D215" s="1">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>8</v>
+      </c>
+      <c r="D216" s="1">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>8</v>
+      </c>
+      <c r="D217" s="1">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+      <c r="C218">
+        <v>8</v>
+      </c>
+      <c r="D218" s="1">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>5</v>
+      </c>
+      <c r="C219">
+        <v>8</v>
+      </c>
+      <c r="D219" s="1">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>6</v>
+      </c>
+      <c r="C220">
+        <v>8</v>
+      </c>
+      <c r="D220" s="1">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7</v>
+      </c>
+      <c r="C221">
+        <v>8</v>
+      </c>
+      <c r="D221" s="1">
+        <v>44780</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>8</v>
+      </c>
+      <c r="C222">
+        <v>8</v>
+      </c>
+      <c r="D222" s="1">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>9</v>
+      </c>
+      <c r="C223">
+        <v>8</v>
+      </c>
+      <c r="D223" s="1">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>10</v>
+      </c>
+      <c r="C224">
+        <v>8</v>
+      </c>
+      <c r="D224" s="1">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>11</v>
+      </c>
+      <c r="C225">
+        <v>8</v>
+      </c>
+      <c r="D225" s="1">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>12</v>
+      </c>
+      <c r="C226">
+        <v>8</v>
+      </c>
+      <c r="D226" s="1">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>13</v>
+      </c>
+      <c r="C227">
+        <v>8</v>
+      </c>
+      <c r="D227" s="1">
+        <v>44786</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>14</v>
+      </c>
+      <c r="C228">
+        <v>8</v>
+      </c>
+      <c r="D228" s="1">
+        <v>44787</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>15</v>
+      </c>
+      <c r="C229">
+        <v>8</v>
+      </c>
+      <c r="D229" s="1">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>16</v>
+      </c>
+      <c r="C230">
+        <v>8</v>
+      </c>
+      <c r="D230" s="1">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>17</v>
+      </c>
+      <c r="C231">
+        <v>8</v>
+      </c>
+      <c r="D231" s="1">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>18</v>
+      </c>
+      <c r="C232">
+        <v>8</v>
+      </c>
+      <c r="D232" s="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>19</v>
+      </c>
+      <c r="C233">
+        <v>8</v>
+      </c>
+      <c r="D233" s="1">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>20</v>
+      </c>
+      <c r="C234">
+        <v>8</v>
+      </c>
+      <c r="D234" s="1">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>21</v>
+      </c>
+      <c r="C235">
+        <v>8</v>
+      </c>
+      <c r="D235" s="1">
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>22</v>
+      </c>
+      <c r="C236">
+        <v>8</v>
+      </c>
+      <c r="D236" s="1">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>23</v>
+      </c>
+      <c r="C237">
+        <v>8</v>
+      </c>
+      <c r="D237" s="1">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>24</v>
+      </c>
+      <c r="C238">
+        <v>8</v>
+      </c>
+      <c r="D238" s="1">
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>25</v>
+      </c>
+      <c r="C239">
+        <v>8</v>
+      </c>
+      <c r="D239" s="1">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>26</v>
+      </c>
+      <c r="C240">
+        <v>8</v>
+      </c>
+      <c r="D240" s="1">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>27</v>
+      </c>
+      <c r="C241">
+        <v>8</v>
+      </c>
+      <c r="D241" s="1">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>28</v>
+      </c>
+      <c r="C242">
+        <v>8</v>
+      </c>
+      <c r="D242" s="1">
+        <v>44801</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>29</v>
+      </c>
+      <c r="C243">
+        <v>8</v>
+      </c>
+      <c r="D243" s="1">
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>30</v>
+      </c>
+      <c r="C244">
+        <v>8</v>
+      </c>
+      <c r="D244" s="1">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>31</v>
+      </c>
+      <c r="C245">
+        <v>8</v>
+      </c>
+      <c r="D245" s="1">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>9</v>
+      </c>
+      <c r="D246" s="1">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>9</v>
+      </c>
+      <c r="D247" s="1">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>9</v>
+      </c>
+      <c r="D248" s="1">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249">
+        <v>9</v>
+      </c>
+      <c r="D249" s="1">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>5</v>
+      </c>
+      <c r="C250">
+        <v>9</v>
+      </c>
+      <c r="D250" s="1">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>6</v>
+      </c>
+      <c r="C251">
+        <v>9</v>
+      </c>
+      <c r="D251" s="1">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7</v>
+      </c>
+      <c r="C252">
+        <v>9</v>
+      </c>
+      <c r="D252" s="1">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>8</v>
+      </c>
+      <c r="C253">
+        <v>9</v>
+      </c>
+      <c r="D253" s="1">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>9</v>
+      </c>
+      <c r="C254">
+        <v>9</v>
+      </c>
+      <c r="D254" s="1">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>10</v>
+      </c>
+      <c r="C255">
+        <v>9</v>
+      </c>
+      <c r="D255" s="1">
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>11</v>
+      </c>
+      <c r="C256">
+        <v>9</v>
+      </c>
+      <c r="D256" s="1">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>12</v>
+      </c>
+      <c r="C257">
+        <v>9</v>
+      </c>
+      <c r="D257" s="1">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>13</v>
+      </c>
+      <c r="C258">
+        <v>9</v>
+      </c>
+      <c r="D258" s="1">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>14</v>
+      </c>
+      <c r="C259">
+        <v>9</v>
+      </c>
+      <c r="D259" s="1">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>15</v>
+      </c>
+      <c r="C260">
+        <v>9</v>
+      </c>
+      <c r="D260" s="1">
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>16</v>
+      </c>
+      <c r="C261">
+        <v>9</v>
+      </c>
+      <c r="D261" s="1">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>17</v>
+      </c>
+      <c r="C262">
+        <v>9</v>
+      </c>
+      <c r="D262" s="1">
+        <v>44821</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>18</v>
+      </c>
+      <c r="C263">
+        <v>9</v>
+      </c>
+      <c r="D263" s="1">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>19</v>
+      </c>
+      <c r="C264">
+        <v>9</v>
+      </c>
+      <c r="D264" s="1">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>20</v>
+      </c>
+      <c r="C265">
+        <v>9</v>
+      </c>
+      <c r="D265" s="1">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>21</v>
+      </c>
+      <c r="C266">
+        <v>9</v>
+      </c>
+      <c r="D266" s="1">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>22</v>
+      </c>
+      <c r="C267">
+        <v>9</v>
+      </c>
+      <c r="D267" s="1">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>23</v>
+      </c>
+      <c r="C268">
+        <v>9</v>
+      </c>
+      <c r="D268" s="1">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>24</v>
+      </c>
+      <c r="C269">
+        <v>9</v>
+      </c>
+      <c r="D269" s="1">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>25</v>
+      </c>
+      <c r="C270">
+        <v>9</v>
+      </c>
+      <c r="D270" s="1">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>26</v>
+      </c>
+      <c r="C271">
+        <v>9</v>
+      </c>
+      <c r="D271" s="1">
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>27</v>
+      </c>
+      <c r="C272">
+        <v>9</v>
+      </c>
+      <c r="D272" s="1">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>28</v>
+      </c>
+      <c r="C273">
+        <v>9</v>
+      </c>
+      <c r="D273" s="1">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>29</v>
+      </c>
+      <c r="C274">
+        <v>9</v>
+      </c>
+      <c r="D274" s="1">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>30</v>
+      </c>
+      <c r="C275">
+        <v>9</v>
+      </c>
+      <c r="D275" s="1">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>10</v>
+      </c>
+      <c r="D276" s="1">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>10</v>
+      </c>
+      <c r="D277" s="1">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>10</v>
+      </c>
+      <c r="D278" s="1">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>10</v>
+      </c>
+      <c r="D279" s="1">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>10</v>
+      </c>
+      <c r="D280" s="1">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>6</v>
+      </c>
+      <c r="C281">
+        <v>10</v>
+      </c>
+      <c r="D281" s="1">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7</v>
+      </c>
+      <c r="C282">
+        <v>10</v>
+      </c>
+      <c r="D282" s="1">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>8</v>
+      </c>
+      <c r="C283">
+        <v>10</v>
+      </c>
+      <c r="D283" s="1">
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>9</v>
+      </c>
+      <c r="C284">
+        <v>10</v>
+      </c>
+      <c r="D284" s="1">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>10</v>
+      </c>
+      <c r="C285">
+        <v>10</v>
+      </c>
+      <c r="D285" s="1">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>11</v>
+      </c>
+      <c r="C286">
+        <v>10</v>
+      </c>
+      <c r="D286" s="1">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>12</v>
+      </c>
+      <c r="C287">
+        <v>10</v>
+      </c>
+      <c r="D287" s="1">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>13</v>
+      </c>
+      <c r="C288">
+        <v>10</v>
+      </c>
+      <c r="D288" s="1">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>14</v>
+      </c>
+      <c r="C289">
+        <v>10</v>
+      </c>
+      <c r="D289" s="1">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>15</v>
+      </c>
+      <c r="C290">
+        <v>10</v>
+      </c>
+      <c r="D290" s="1">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>16</v>
+      </c>
+      <c r="C291">
+        <v>10</v>
+      </c>
+      <c r="D291" s="1">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>17</v>
+      </c>
+      <c r="C292">
+        <v>10</v>
+      </c>
+      <c r="D292" s="1">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>18</v>
+      </c>
+      <c r="C293">
+        <v>10</v>
+      </c>
+      <c r="D293" s="1">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>19</v>
+      </c>
+      <c r="C294">
+        <v>10</v>
+      </c>
+      <c r="D294" s="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>20</v>
+      </c>
+      <c r="C295">
+        <v>10</v>
+      </c>
+      <c r="D295" s="1">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>21</v>
+      </c>
+      <c r="C296">
+        <v>10</v>
+      </c>
+      <c r="D296" s="1">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>22</v>
+      </c>
+      <c r="C297">
+        <v>10</v>
+      </c>
+      <c r="D297" s="1">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>23</v>
+      </c>
+      <c r="C298">
+        <v>10</v>
+      </c>
+      <c r="D298" s="1">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>24</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299" s="1">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>25</v>
+      </c>
+      <c r="C300">
+        <v>10</v>
+      </c>
+      <c r="D300" s="1">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>26</v>
+      </c>
+      <c r="C301">
+        <v>10</v>
+      </c>
+      <c r="D301" s="1">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>27</v>
+      </c>
+      <c r="C302">
+        <v>10</v>
+      </c>
+      <c r="D302" s="1">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>28</v>
+      </c>
+      <c r="C303">
+        <v>10</v>
+      </c>
+      <c r="D303" s="1">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>29</v>
+      </c>
+      <c r="C304">
+        <v>10</v>
+      </c>
+      <c r="D304" s="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>30</v>
+      </c>
+      <c r="C305">
+        <v>10</v>
+      </c>
+      <c r="D305" s="1">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>31</v>
+      </c>
+      <c r="C306">
+        <v>10</v>
+      </c>
+      <c r="D306" s="1">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>11</v>
+      </c>
+      <c r="D307" s="1">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>11</v>
+      </c>
+      <c r="D308" s="1">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <v>11</v>
+      </c>
+      <c r="D309" s="1">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>4</v>
+      </c>
+      <c r="C310">
+        <v>11</v>
+      </c>
+      <c r="D310" s="1">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>5</v>
+      </c>
+      <c r="C311">
+        <v>11</v>
+      </c>
+      <c r="D311" s="1">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>6</v>
+      </c>
+      <c r="C312">
+        <v>11</v>
+      </c>
+      <c r="D312" s="1">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>7</v>
+      </c>
+      <c r="C313">
+        <v>11</v>
+      </c>
+      <c r="D313" s="1">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>8</v>
+      </c>
+      <c r="C314">
+        <v>11</v>
+      </c>
+      <c r="D314" s="1">
+        <v>44873</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>9</v>
+      </c>
+      <c r="C315">
+        <v>11</v>
+      </c>
+      <c r="D315" s="1">
+        <v>44874</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>10</v>
+      </c>
+      <c r="C316">
+        <v>11</v>
+      </c>
+      <c r="D316" s="1">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>11</v>
+      </c>
+      <c r="C317">
+        <v>11</v>
+      </c>
+      <c r="D317" s="1">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>12</v>
+      </c>
+      <c r="C318">
+        <v>11</v>
+      </c>
+      <c r="D318" s="1">
+        <v>44877</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>13</v>
+      </c>
+      <c r="C319">
+        <v>11</v>
+      </c>
+      <c r="D319" s="1">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>14</v>
+      </c>
+      <c r="C320">
+        <v>11</v>
+      </c>
+      <c r="D320" s="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>15</v>
+      </c>
+      <c r="C321">
+        <v>11</v>
+      </c>
+      <c r="D321" s="1">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>16</v>
+      </c>
+      <c r="C322">
+        <v>11</v>
+      </c>
+      <c r="D322" s="1">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>17</v>
+      </c>
+      <c r="C323">
+        <v>11</v>
+      </c>
+      <c r="D323" s="1">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>18</v>
+      </c>
+      <c r="C324">
+        <v>11</v>
+      </c>
+      <c r="D324" s="1">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>19</v>
+      </c>
+      <c r="C325">
+        <v>11</v>
+      </c>
+      <c r="D325" s="1">
+        <v>44884</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>20</v>
+      </c>
+      <c r="C326">
+        <v>11</v>
+      </c>
+      <c r="D326" s="1">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>21</v>
+      </c>
+      <c r="C327">
+        <v>11</v>
+      </c>
+      <c r="D327" s="1">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>22</v>
+      </c>
+      <c r="C328">
+        <v>11</v>
+      </c>
+      <c r="D328" s="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>23</v>
+      </c>
+      <c r="C329">
+        <v>11</v>
+      </c>
+      <c r="D329" s="1">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>24</v>
+      </c>
+      <c r="C330">
+        <v>11</v>
+      </c>
+      <c r="D330" s="1">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>25</v>
+      </c>
+      <c r="C331">
+        <v>11</v>
+      </c>
+      <c r="D331" s="1">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>26</v>
+      </c>
+      <c r="C332">
+        <v>11</v>
+      </c>
+      <c r="D332" s="1">
+        <v>44891</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>27</v>
+      </c>
+      <c r="C333">
+        <v>11</v>
+      </c>
+      <c r="D333" s="1">
+        <v>44892</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>28</v>
+      </c>
+      <c r="C334">
+        <v>11</v>
+      </c>
+      <c r="D334" s="1">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>29</v>
+      </c>
+      <c r="C335">
+        <v>11</v>
+      </c>
+      <c r="D335" s="1">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>30</v>
+      </c>
+      <c r="C336">
+        <v>11</v>
+      </c>
+      <c r="D336" s="1">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>12</v>
+      </c>
+      <c r="D337" s="1">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>2</v>
+      </c>
+      <c r="C338">
+        <v>12</v>
+      </c>
+      <c r="D338" s="1">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339">
+        <v>12</v>
+      </c>
+      <c r="D339" s="1">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>4</v>
+      </c>
+      <c r="C340">
+        <v>12</v>
+      </c>
+      <c r="D340" s="1">
+        <v>44899</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>5</v>
+      </c>
+      <c r="C341">
+        <v>12</v>
+      </c>
+      <c r="D341" s="1">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>6</v>
+      </c>
+      <c r="C342">
+        <v>12</v>
+      </c>
+      <c r="D342" s="1">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>7</v>
+      </c>
+      <c r="C343">
+        <v>12</v>
+      </c>
+      <c r="D343" s="1">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>8</v>
+      </c>
+      <c r="C344">
+        <v>12</v>
+      </c>
+      <c r="D344" s="1">
+        <v>44903</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>9</v>
+      </c>
+      <c r="C345">
+        <v>12</v>
+      </c>
+      <c r="D345" s="1">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>10</v>
+      </c>
+      <c r="C346">
+        <v>12</v>
+      </c>
+      <c r="D346" s="1">
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>11</v>
+      </c>
+      <c r="C347">
+        <v>12</v>
+      </c>
+      <c r="D347" s="1">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>12</v>
+      </c>
+      <c r="C348">
+        <v>12</v>
+      </c>
+      <c r="D348" s="1">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>13</v>
+      </c>
+      <c r="C349">
+        <v>12</v>
+      </c>
+      <c r="D349" s="1">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>14</v>
+      </c>
+      <c r="C350">
+        <v>12</v>
+      </c>
+      <c r="D350" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>15</v>
+      </c>
+      <c r="C351">
+        <v>12</v>
+      </c>
+      <c r="D351" s="1">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>16</v>
+      </c>
+      <c r="C352">
+        <v>12</v>
+      </c>
+      <c r="D352" s="1">
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>17</v>
+      </c>
+      <c r="C353">
+        <v>12</v>
+      </c>
+      <c r="D353" s="1">
+        <v>44912</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>18</v>
+      </c>
+      <c r="C354">
+        <v>12</v>
+      </c>
+      <c r="D354" s="1">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>19</v>
+      </c>
+      <c r="C355">
+        <v>12</v>
+      </c>
+      <c r="D355" s="1">
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>20</v>
+      </c>
+      <c r="C356">
+        <v>12</v>
+      </c>
+      <c r="D356" s="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>21</v>
+      </c>
+      <c r="C357">
+        <v>12</v>
+      </c>
+      <c r="D357" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>22</v>
+      </c>
+      <c r="C358">
+        <v>12</v>
+      </c>
+      <c r="D358" s="1">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>23</v>
+      </c>
+      <c r="C359">
+        <v>12</v>
+      </c>
+      <c r="D359" s="1">
+        <v>44918</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>24</v>
+      </c>
+      <c r="C360">
+        <v>12</v>
+      </c>
+      <c r="D360" s="1">
+        <v>44919</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>25</v>
+      </c>
+      <c r="C361">
+        <v>12</v>
+      </c>
+      <c r="D361" s="1">
+        <v>44920</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>26</v>
+      </c>
+      <c r="C362">
+        <v>12</v>
+      </c>
+      <c r="D362" s="1">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>27</v>
+      </c>
+      <c r="C363">
+        <v>12</v>
+      </c>
+      <c r="D363" s="1">
+        <v>44922</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>28</v>
+      </c>
+      <c r="C364">
+        <v>12</v>
+      </c>
+      <c r="D364" s="1">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>29</v>
+      </c>
+      <c r="C365">
+        <v>12</v>
+      </c>
+      <c r="D365" s="1">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>30</v>
+      </c>
+      <c r="C366">
+        <v>12</v>
+      </c>
+      <c r="D366" s="1">
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>31</v>
+      </c>
+      <c r="C367">
+        <v>12</v>
+      </c>
+      <c r="D367" s="1">
+        <v>44926</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,9 +6531,10 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +6544,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -550,8 +6558,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31</v>
       </c>
@@ -561,8 +6572,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
@@ -572,8 +6586,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -583,8 +6600,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -594,8 +6614,11 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -605,8 +6628,11 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -616,8 +6642,11 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>29</v>
       </c>
@@ -627,8 +6656,11 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -638,8 +6670,11 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -649,8 +6684,11 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -660,8 +6698,11 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
@@ -671,8 +6712,11 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>30</v>
       </c>
@@ -682,8 +6726,11 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -693,8 +6740,11 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -704,8 +6754,11 @@
       <c r="C16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -715,8 +6768,11 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -726,8 +6782,11 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -737,8 +6796,11 @@
       <c r="C19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>31</v>
       </c>
@@ -748,8 +6810,11 @@
       <c r="C20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -759,8 +6824,11 @@
       <c r="C21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -770,8 +6838,11 @@
       <c r="C22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -779,10 +6850,13 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -790,10 +6864,13 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14</v>
       </c>
@@ -801,10 +6878,13 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -812,10 +6892,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -823,10 +6906,13 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -834,10 +6920,13 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -845,176 +6934,227 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
         <v>51</v>
       </c>
-      <c r="C40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C44"/>
+  <sortState ref="A2:D44">
+    <sortCondition ref="D2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/0-varios/Archivos-Office/Banco_de_imágenes.xlsx
+++ b/0-varios/Archivos-Office/Banco_de_imágenes.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BD!$A$1:$C$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja!$C$1:$C$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja!$B$1:$H$88</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="168">
   <si>
     <t>DíaDelMes</t>
   </si>
@@ -228,16 +228,329 @@
   </si>
   <si>
     <t>orden</t>
+  </si>
+  <si>
+    <t>archivo</t>
+  </si>
+  <si>
+    <t>Agustin-de-Hipona</t>
+  </si>
+  <si>
+    <t>Alberto-Hurtado.jpg</t>
+  </si>
+  <si>
+    <t>Anne-Setton.jpg</t>
+  </si>
+  <si>
+    <t>Antonio-Claret.jpg</t>
+  </si>
+  <si>
+    <t>San Antonio Ma. Claret</t>
+  </si>
+  <si>
+    <t>Beatos Luis y María Beltrame Quattrocchi</t>
+  </si>
+  <si>
+    <t>Beltrame-Quattrocchi.jpg</t>
+  </si>
+  <si>
+    <t>Celia-y-Luis-Martín.jpg</t>
+  </si>
+  <si>
+    <t>Santos Luis y Celia Martín</t>
+  </si>
+  <si>
+    <t>Don-Bosco.jpg</t>
+  </si>
+  <si>
+    <t>Santa Faustina Kowalska</t>
+  </si>
+  <si>
+    <t>Faustina-Kowalska.jpg</t>
+  </si>
+  <si>
+    <t>Faustina-Kowalska'.jpg</t>
+  </si>
+  <si>
+    <t>Felipe-Neri.jpg</t>
+  </si>
+  <si>
+    <t>Ignacio-de-Loyola.jpg</t>
+  </si>
+  <si>
+    <t>Isidro-Labrador.jpg</t>
+  </si>
+  <si>
+    <t>Viernes Santo</t>
+  </si>
+  <si>
+    <t>Jesús-Crucifixión.jpg</t>
+  </si>
+  <si>
+    <t>Jose-Cupertino.jpg</t>
+  </si>
+  <si>
+    <t>Juan-Bautista-de-la-Salle.jpg</t>
+  </si>
+  <si>
+    <t>Papa Juan Pablo II</t>
+  </si>
+  <si>
+    <t>Don Bosco</t>
+  </si>
+  <si>
+    <t>Juan-Pablo-II.jpg</t>
+  </si>
+  <si>
+    <t>Juan-Pablo-II'.jpg</t>
+  </si>
+  <si>
+    <t>Juan-XXIII.jpg</t>
+  </si>
+  <si>
+    <t>Madre-Teresa.jpg</t>
+  </si>
+  <si>
+    <t>Madre Teresa (de Calcuta)</t>
+  </si>
+  <si>
+    <t>Mamerto-Esquiu.jpg</t>
+  </si>
+  <si>
+    <t>San Martín de Porres</t>
+  </si>
+  <si>
+    <t>Martin-de-Porres.jpg</t>
+  </si>
+  <si>
+    <t>San Martín de Tours</t>
+  </si>
+  <si>
+    <t>Martin-Tours.jpg</t>
+  </si>
+  <si>
+    <t>Nuestra Señora de Fátima</t>
+  </si>
+  <si>
+    <t>Nuestra-madre-en-Lourdes.jpg</t>
+  </si>
+  <si>
+    <t>Nuestra Señora de Lourdes</t>
+  </si>
+  <si>
+    <t>María madre de la Iglesia</t>
+  </si>
+  <si>
+    <t>Nuestra-madre-Madre-de-la-Iglesia.jpg</t>
+  </si>
+  <si>
+    <t>Nuestra-madre-Medalla-Milagrosa.jpg</t>
+  </si>
+  <si>
+    <t>Nuestra Señora de la Medalla Milagrosa</t>
+  </si>
+  <si>
+    <t>Oscar-Romero.jpg</t>
+  </si>
+  <si>
+    <t>Monseñor Oscar Arnulfo Romero</t>
+  </si>
+  <si>
+    <t>Padre-Pío.jpg</t>
+  </si>
+  <si>
+    <t>Padre Pío (san Pio de Pietrelcina)</t>
+  </si>
+  <si>
+    <t>Santos Francisco y Jacinta Marto</t>
+  </si>
+  <si>
+    <t>Santos Pedro y Pablo</t>
+  </si>
+  <si>
+    <t>Pedro-y-Pablo.jpg</t>
+  </si>
+  <si>
+    <t>Policarpo-de-Esmirna.jpg</t>
+  </si>
+  <si>
+    <t>Rita-de-Casia.jpg</t>
+  </si>
+  <si>
+    <t>Rosa-de-Lima.jpg</t>
+  </si>
+  <si>
+    <t>Sagrada Familia</t>
+  </si>
+  <si>
+    <t>Sagrada-Familia.jpg</t>
+  </si>
+  <si>
+    <t>Teresa-de-los-Andes.jpg</t>
+  </si>
+  <si>
+    <t>Teresita-de-Lisieux.jpg</t>
+  </si>
+  <si>
+    <t>Santa Teresita del Niño Jesús</t>
+  </si>
+  <si>
+    <t>Vicente-de-Paul.jpg</t>
+  </si>
+  <si>
+    <t>Domingo de Ramos</t>
+  </si>
+  <si>
+    <t>Domingo de Resurrección</t>
+  </si>
+  <si>
+    <t>movil</t>
+  </si>
+  <si>
+    <t>Mamá Antula (Ma. Antonia de Paz y Figueroa)</t>
+  </si>
+  <si>
+    <t>Pentecostés</t>
+  </si>
+  <si>
+    <t>Miércoles de Cenizas</t>
+  </si>
+  <si>
+    <t>Cuándo</t>
+  </si>
+  <si>
+    <t>40 días antes del viernes santo</t>
+  </si>
+  <si>
+    <t>Lunes siguiente a Pentecostés</t>
+  </si>
+  <si>
+    <t>40 días después del domingo de Resurrección</t>
+  </si>
+  <si>
+    <t>María madre de Dios</t>
+  </si>
+  <si>
+    <t>Santa Isabel Bayley Setton</t>
+  </si>
+  <si>
+    <t>Bautismo de nuestro Señor</t>
+  </si>
+  <si>
+    <t>Beata Laura Vicuña</t>
+  </si>
+  <si>
+    <t>San Francisco de Sales</t>
+  </si>
+  <si>
+    <t>Conversión de San Pablo</t>
+  </si>
+  <si>
+    <t>Cura Brochero (san José Gabriel Brochero)</t>
+  </si>
+  <si>
+    <t>San José, padre de Jesús</t>
+  </si>
+  <si>
+    <t>Anunciación del Señor</t>
+  </si>
+  <si>
+    <t>Santo Domingo Savio</t>
+  </si>
+  <si>
+    <t>Nuestra Señora de Luján (patrona de Argentina)</t>
+  </si>
+  <si>
+    <t>día</t>
+  </si>
+  <si>
+    <t>Ascensión del Señor</t>
+  </si>
+  <si>
+    <t>50 días después del domingo de Resurrección</t>
+  </si>
+  <si>
+    <t>Corpus Christi</t>
+  </si>
+  <si>
+    <t>Santa María Magdalena</t>
+  </si>
+  <si>
+    <t>Santos Joaquín y Ana, padres de María</t>
+  </si>
+  <si>
+    <t>San Juan María Vianney (el cura de Ars)</t>
+  </si>
+  <si>
+    <t>Asunción de María</t>
+  </si>
+  <si>
+    <t>San Bernardo de Claraval</t>
+  </si>
+  <si>
+    <t>San Luis IX, rey de Francia</t>
+  </si>
+  <si>
+    <t>Santa Mónica</t>
+  </si>
+  <si>
+    <t>San Agustín de Hipona</t>
+  </si>
+  <si>
+    <t>Beato Carlo Acutis</t>
+  </si>
+  <si>
+    <t>Solemnidad de Todos los Santos</t>
+  </si>
+  <si>
+    <t>Santa Isabel de Hungría</t>
+  </si>
+  <si>
+    <t>Inmaculada Concepción de María</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Juan Diego.jpg</t>
+  </si>
+  <si>
+    <t>Pastorcitos-de-Fatima.jpg</t>
+  </si>
+  <si>
+    <t>Nuestra-madre-en-Fátima.jpg</t>
+  </si>
+  <si>
+    <t>Nuestra-madre-en-Guadalupe.jpg</t>
+  </si>
+  <si>
+    <t>Nuestra-madre-en-Lourdes'.jpg</t>
+  </si>
+  <si>
+    <t>Monica-y-su-hijo-Agustin.jpg</t>
+  </si>
+  <si>
+    <t>Navidad</t>
+  </si>
+  <si>
+    <t>Navidad.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,12 +576,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,818 +866,1681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B44"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
       <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>SUMIFS(Días!A:A,Días!B:B,F4,Días!C:C,G4)</f>
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>SUMIFS(Días!A:A,Días!B:B,F6,Días!C:C,G6)</f>
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>SUMIFS(Días!A:A,Días!B:B,F11,Días!C:C,G11)</f>
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>SUMIFS(Días!A:A,Días!B:B,F16,Días!C:C,G16)</f>
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>SUMIFS(Días!A:A,Días!B:B,F17,Días!C:C,G17)</f>
+        <v>194</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>195</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>31</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>231</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>SUMIFS(Días!A:A,Días!B:B,F21,Días!C:C,G21)</f>
+        <v>240</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>241</v>
       </c>
-      <c r="C2">
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
         <v>28</v>
       </c>
-      <c r="D2">
+      <c r="G22" s="2">
         <v>8</v>
       </c>
-      <c r="E2" t="str">
-        <f>MID(A2,FIND(" ",A2)+1,99)</f>
-        <v>Agustín</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>231</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>243</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>249</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>262</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="G25" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>267</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>23</v>
+      </c>
+      <c r="G26" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>275</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>279</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>279</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>285</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>SUMIFS(Días!A:A,Días!B:B,F33,Días!C:C,G33)</f>
+        <v>296</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>22</v>
+      </c>
+      <c r="G33" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>SUMIFS(Días!A:A,Días!B:B,F34,Días!C:C,G34)</f>
+        <v>296</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>22</v>
+      </c>
+      <c r="G34" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>SUMIFS(Días!A:A,Días!B:B,F35,Días!C:C,G35)</f>
+        <v>298</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>24</v>
+      </c>
+      <c r="G35" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>SUMIFS(Días!A:A,Días!B:B,F36,Días!C:C,G36)</f>
+        <v>308</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>SUMIFS(Días!A:A,Días!B:B,F37,Días!C:C,G37)</f>
+        <v>316</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>SUMIFS(Días!A:A,Días!B:B,F38,Días!C:C,G38)</f>
+        <v>330</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>25</v>
+      </c>
+      <c r="G38" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>SUMIFS(Días!A:A,Días!B:B,F39,Días!C:C,G39)</f>
+        <v>332</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>27</v>
+      </c>
+      <c r="G39" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>344</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>9</v>
+      </c>
+      <c r="G40" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>347</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>SUMIFS(Días!A:A,Días!B:B,F42,Días!C:C,G42)</f>
+        <v>361</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>26</v>
+      </c>
+      <c r="G42" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>SUMIFS(Días!A:A,Días!B:B,F44,Días!C:C,G44)</f>
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>22</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>SUMIFS(Días!A:A,Días!B:B,F45,Días!C:C,G45)</f>
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>24</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>SUMIFS(Días!A:A,Días!B:B,F46,Días!C:C,G46)</f>
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>25</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>18</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>SUMIFS(Días!A:A,Días!B:B,F48,Días!C:C,G48)</f>
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>7</v>
+      </c>
+      <c r="G48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>SUMIFS(Días!A:A,Días!B:B,F49,Días!C:C,G49)</f>
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>SUMIFS(Días!A:A,Días!B:B,F50,Días!C:C,G50)</f>
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>19</v>
+      </c>
+      <c r="G50" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>SUMIFS(Días!A:A,Días!B:B,F51,Días!C:C,G51)</f>
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>25</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>15</v>
+      </c>
+      <c r="G52" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>29</v>
+      </c>
+      <c r="G53" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>SUMIFS(Días!A:A,Días!B:B,F54,Días!C:C,G54)</f>
+        <v>127</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>SUMIFS(Días!A:A,Días!B:B,F55,Días!C:C,G55)</f>
+        <v>129</v>
+      </c>
+      <c r="B55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
         <v>8</v>
       </c>
-      <c r="E3" t="str">
-        <f>MID(A3,FIND(" ",A3)+1,99)</f>
-        <v>Alberto Hurtado</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G55" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>151</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>30</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>165</v>
-      </c>
-      <c r="C4">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="G57" s="2">
         <v>6</v>
       </c>
-      <c r="E4" t="str">
-        <f>MID(A4,FIND(" ",A4)+1,99)</f>
-        <v>Antonio de Padua</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>22</v>
+      </c>
+      <c r="G58" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>186</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>4</v>
+      </c>
+      <c r="G59" s="2">
         <v>7</v>
       </c>
-      <c r="B5">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>188</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>SUMIFS(Días!A:A,Días!B:B,F61,Días!C:C,G61)</f>
+        <v>204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>22</v>
+      </c>
+      <c r="G61" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>SUMIFS(Días!A:A,Días!B:B,F62,Días!C:C,G62)</f>
+        <v>208</v>
+      </c>
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>26</v>
+      </c>
+      <c r="G62" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>217</v>
+      </c>
+      <c r="B63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>221</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>8</v>
+      </c>
+      <c r="G64" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>222</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>9</v>
+      </c>
+      <c r="G65" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>224</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>11</v>
+      </c>
+      <c r="G66" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>227</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>14</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>SUMIFS(Días!A:A,Días!B:B,F68,Días!C:C,G68)</f>
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>15</v>
+      </c>
+      <c r="G68" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>SUMIFS(Días!A:A,Días!B:B,F69,Días!C:C,G69)</f>
+        <v>233</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>20</v>
+      </c>
+      <c r="G69" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>SUMIFS(Días!A:A,Días!B:B,F70,Días!C:C,G70)</f>
+        <v>238</v>
+      </c>
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>25</v>
+      </c>
+      <c r="G70" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>239</v>
+      </c>
+      <c r="B71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>26</v>
+      </c>
+      <c r="G71" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>261</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>17</v>
+      </c>
+      <c r="G72" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>278</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>4</v>
+      </c>
+      <c r="G73" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>289</v>
+      </c>
+      <c r="B74" t="s">
         <v>49</v>
       </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="str">
-        <f>MID(A5,FIND(" ",A5)+1,99)</f>
-        <v>Bernardita Soubirous</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>120</v>
-      </c>
-      <c r="C6">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>15</v>
+      </c>
+      <c r="G74" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>SUMIFS(Días!A:A,Días!B:B,F75,Días!C:C,G75)</f>
+        <v>306</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f>SUMIFS(Días!A:A,Días!B:B,F76,Días!C:C,G76)</f>
+        <v>322</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>17</v>
+      </c>
+      <c r="G76" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>338</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>3</v>
+      </c>
+      <c r="G77" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>SUMIFS(Días!A:A,Días!B:B,F78,Días!C:C,G78)</f>
+        <v>343</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>8</v>
+      </c>
+      <c r="G78" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>SUMIFS(Días!A:A,Días!B:B,F79,Días!C:C,G79)</f>
+        <v>347</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>SUMIFS(Días!A:A,Días!B:B,F80,Días!C:C,G80)</f>
+        <v>360</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>25</v>
+      </c>
+      <c r="G80" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>364</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
         <v>29</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="str">
-        <f>MID(A6,FIND(" ",A6)+1,99)</f>
-        <v>Catalina de Siena</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>239</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" t="str">
-        <f>MID(A7,FIND(" ",A7)+1,99)</f>
-        <v>Ceferino Namuncurá</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>224</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8" t="str">
-        <f>MID(A8,FIND(" ",A8)+1,99)</f>
-        <v>Clara de Asís</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>106</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="str">
-        <f>MID(A9,FIND(" ",A9)+1,99)</f>
-        <v>Damián de Molokai</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>360</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10">
+      <c r="G81" s="2">
         <v>12</v>
       </c>
-      <c r="E10" t="str">
-        <f>MID(A10,FIND(" ",A10)+1,99)</f>
-        <v>del Señor</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>221</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11" t="str">
-        <f>MID(A11,FIND(" ",A11)+1,99)</f>
-        <v>Domingo de Guzmán</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>147</v>
-      </c>
-      <c r="C12">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="str">
-        <f>MID(A12,FIND(" ",A12)+1,99)</f>
-        <v>Felipe Neri</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>278</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="str">
-        <f>MID(A13,FIND(" ",A13)+1,99)</f>
-        <v>Francisco de Asís</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14">
-        <v>338</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="str">
-        <f>MID(A14,FIND(" ",A14)+1,99)</f>
-        <v>Francisco Javier</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>261</v>
-      </c>
-      <c r="C15">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15" t="str">
-        <f>MID(A15,FIND(" ",A15)+1,99)</f>
-        <v>Hildegarda de Bingen</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>213</v>
-      </c>
-      <c r="C16">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16" t="str">
-        <f>MID(A16,FIND(" ",A16)+1,99)</f>
-        <v>Ignacio de Loyola</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82">
         <v>1</v>
       </c>
-      <c r="E17" t="str">
-        <f>MID(A17,FIND(" ",A17)+1,99)</f>
-        <v>Isabel Bayley Seton</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>186</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18" t="str">
-        <f>MID(A18,FIND(" ",A18)+1,99)</f>
-        <v>Isabel de Portugal</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>136</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" t="str">
-        <f>MID(A19,FIND(" ",A19)+1,99)</f>
-        <v>Isidro Labrador</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20">
-        <v>262</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20" t="str">
-        <f>MID(A20,FIND(" ",A20)+1,99)</f>
-        <v>José de Cupertino</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>98</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="str">
-        <f>MID(A21,FIND(" ",A21)+1,99)</f>
-        <v>Juan Bautista de la Salle</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>31</v>
-      </c>
-      <c r="C22">
-        <v>31</v>
-      </c>
-      <c r="D22">
+      <c r="F82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83">
         <v>1</v>
       </c>
-      <c r="E22" t="str">
-        <f>MID(A22,FIND(" ",A22)+1,99)</f>
-        <v>Juan Bosco</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23">
-        <v>344</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>12</v>
-      </c>
-      <c r="E23" t="str">
-        <f>MID(A23,FIND(" ",A23)+1,99)</f>
-        <v>Juan Diego</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>217</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24" t="str">
-        <f>MID(A24,FIND(" ",A24)+1,99)</f>
-        <v>Juan María Vianney</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25">
-        <v>285</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25" t="str">
-        <f>MID(A25,FIND(" ",A25)+1,99)</f>
-        <v>Juan XXIII</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>151</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26" t="str">
-        <f>MID(A26,FIND(" ",A26)+1,99)</f>
-        <v>Juana de Arco</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>132</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27" t="str">
-        <f>MID(A27,FIND(" ",A27)+1,99)</f>
-        <v>Mamerto Esquiú</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28">
-        <v>279</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28" t="str">
-        <f>MID(A28,FIND(" ",A28)+1,99)</f>
-        <v>María Faustina Kowalska</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>188</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29" t="str">
-        <f>MID(A29,FIND(" ",A29)+1,99)</f>
-        <v>María Goretti</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>227</v>
-      </c>
-      <c r="C30">
-        <v>14</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30" t="str">
-        <f>MID(A30,FIND(" ",A30)+1,99)</f>
-        <v>Maximiliano Kolbe</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>84</v>
-      </c>
-      <c r="C31">
-        <v>24</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="str">
-        <f>MID(A31,FIND(" ",A31)+1,99)</f>
-        <v>Óscar Arnulfo Romero</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32">
-        <v>267</v>
-      </c>
-      <c r="C32">
-        <v>23</v>
-      </c>
-      <c r="D32">
-        <v>9</v>
-      </c>
-      <c r="E32" t="str">
-        <f>MID(A32,FIND(" ",A32)+1,99)</f>
-        <v>Pio de Pietrelcina</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>54</v>
-      </c>
-      <c r="C33">
-        <v>23</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="str">
-        <f>MID(A33,FIND(" ",A33)+1,99)</f>
-        <v>Policarpo</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34">
-        <v>143</v>
-      </c>
-      <c r="C34">
-        <v>22</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34" t="str">
-        <f>MID(A34,FIND(" ",A34)+1,99)</f>
-        <v>Rita de Cascia</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>243</v>
-      </c>
-      <c r="C35">
-        <v>30</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-      <c r="E35" t="str">
-        <f>MID(A35,FIND(" ",A35)+1,99)</f>
-        <v>Rosa de Lima</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36">
-        <v>347</v>
-      </c>
-      <c r="C36">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>12</v>
-      </c>
-      <c r="E36" t="str">
-        <f>MID(A36,FIND(" ",A36)+1,99)</f>
-        <v>Señora de Guadalupe</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37">
-        <v>222</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37" t="str">
-        <f>MID(A37,FIND(" ",A37)+1,99)</f>
-        <v>Teresa Benedicta de la Cruz</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
-        <v>289</v>
-      </c>
-      <c r="C38">
-        <v>15</v>
-      </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
-      <c r="E38" t="str">
-        <f>MID(A38,FIND(" ",A38)+1,99)</f>
-        <v>Teresa de Ávila</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>249</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>9</v>
-      </c>
-      <c r="E39" t="str">
-        <f>MID(A39,FIND(" ",A39)+1,99)</f>
-        <v>Teresa de Calcuta</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40">
-        <v>195</v>
-      </c>
-      <c r="C40">
-        <v>13</v>
-      </c>
-      <c r="D40">
-        <v>7</v>
-      </c>
-      <c r="E40" t="str">
-        <f>MID(A40,FIND(" ",A40)+1,99)</f>
-        <v>Teresa de Los Andes</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41">
-        <v>275</v>
-      </c>
-      <c r="C41">
+      <c r="F83" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84">
         <v>1</v>
       </c>
-      <c r="D41">
-        <v>10</v>
-      </c>
-      <c r="E41" t="str">
-        <f>MID(A41,FIND(" ",A41)+1,99)</f>
-        <v>Teresa del Niño Jesús</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42">
-        <v>364</v>
-      </c>
-      <c r="C42">
-        <v>29</v>
-      </c>
-      <c r="D42">
-        <v>12</v>
-      </c>
-      <c r="E42" t="str">
-        <f>MID(A42,FIND(" ",A42)+1,99)</f>
-        <v>Tomás Becket</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43">
-        <v>174</v>
-      </c>
-      <c r="C43">
-        <v>22</v>
-      </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43" t="str">
-        <f>MID(A43,FIND(" ",A43)+1,99)</f>
-        <v>Tomás Moro</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>271</v>
-      </c>
-      <c r="C44">
-        <v>27</v>
-      </c>
-      <c r="D44">
-        <v>9</v>
-      </c>
-      <c r="E44" t="str">
-        <f>MID(A44,FIND(" ",A44)+1,99)</f>
-        <v>Vicente de Paul</v>
+      <c r="F84" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>145</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C44"/>
-  <sortState ref="A2:E44">
-    <sortCondition ref="E1"/>
+  <autoFilter ref="B1:H88"/>
+  <sortState ref="A2:H42">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1368,9 +2548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/0-varios/Archivos-Office/Banco_de_imágenes.xlsx
+++ b/0-varios/Archivos-Office/Banco_de_imágenes.xlsx
@@ -870,7 +870,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,19 +913,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -933,19 +930,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -954,1273 +951,1261 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>SUMIFS(Días!A:A,Días!B:B,F4,Días!C:C,G4)</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>42</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F5,Días!C:C,G5)</f>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>SUMIFS(Días!A:A,Días!B:B,F6,Días!C:C,G6)</f>
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>84</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F8,Días!C:C,G8)</f>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>SUMIFS(Días!A:A,Días!B:B,F11,Días!C:C,G11)</f>
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>143</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F13,Días!C:C,G13)</f>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>SUMIFS(Días!A:A,Días!B:B,F14,Días!C:C,G14)</f>
+        <v>76</v>
+      </c>
       <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>159</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>147</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F15,Días!C:C,G15)</f>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>SUMIFS(Días!A:A,Días!B:B,F16,Días!C:C,G16)</f>
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>SUMIFS(Días!A:A,Días!B:B,F17,Días!C:C,G17)</f>
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G20" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>SUMIFS(Días!A:A,Días!B:B,F21,Días!C:C,G21)</f>
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G21" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>241</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F22,Días!C:C,G22)</f>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G22" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G23" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>249</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F24,Días!C:C,G24)</f>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="F24" s="2">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2">
         <v>5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>271</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G28" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>174</v>
+      </c>
       <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>159</v>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>22</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>279</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F31,Días!C:C,G31)</f>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G31" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G32" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>SUMIFS(Días!A:A,Días!B:B,F33,Días!C:C,G33)</f>
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G33" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>SUMIFS(Días!A:A,Días!B:B,F34,Días!C:C,G34)</f>
-        <v>296</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>SUMIFS(Días!A:A,Días!B:B,F35,Días!C:C,G35)</f>
-        <v>298</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G35" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>SUMIFS(Días!A:A,Días!B:B,F36,Días!C:C,G36)</f>
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G36" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>SUMIFS(Días!A:A,Días!B:B,F37,Días!C:C,G37)</f>
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G37" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>SUMIFS(Días!A:A,Días!B:B,F38,Días!C:C,G38)</f>
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G38" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>SUMIFS(Días!A:A,Días!B:B,F39,Días!C:C,G39)</f>
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G39" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>344</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>160</v>
+      <c r="A40">
+        <v>221</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>347</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="F41" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G41" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>SUMIFS(Días!A:A,Días!B:B,F42,Días!C:C,G42)</f>
-        <v>361</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G42" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>SUMIFS(Días!A:A,Días!B:B,F44,Días!C:C,G44)</f>
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="F44" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>SUMIFS(Días!A:A,Días!B:B,F45,Días!C:C,G45)</f>
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="F45" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>SUMIFS(Días!A:A,Días!B:B,F46,Días!C:C,G46)</f>
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G46" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>49</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F47,Días!C:C,G47)</f>
+        <v>238</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="F47" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G47" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>SUMIFS(Días!A:A,Días!B:B,F48,Días!C:C,G48)</f>
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="F48" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G48" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>SUMIFS(Días!A:A,Días!B:B,F49,Días!C:C,G49)</f>
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="F49" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G49" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>SUMIFS(Días!A:A,Días!B:B,F50,Días!C:C,G50)</f>
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="F50" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G50" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>SUMIFS(Días!A:A,Días!B:B,F51,Días!C:C,G51)</f>
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G51" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>106</v>
+        <v>249</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="F52" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G52" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="F53" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>SUMIFS(Días!A:A,Días!B:B,F54,Días!C:C,G54)</f>
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="F54" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>SUMIFS(Días!A:A,Días!B:B,F55,Días!C:C,G55)</f>
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="F55" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G55" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="F56" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G56" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="F57" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="F58" s="2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G58" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="F59" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G60" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>SUMIFS(Días!A:A,Días!B:B,F61,Días!C:C,G61)</f>
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>48</v>
+      </c>
+      <c r="C61" t="s">
+        <v>91</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="F61" s="2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G61" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>SUMIFS(Días!A:A,Días!B:B,F62,Días!C:C,G62)</f>
-        <v>208</v>
+        <v>289</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="F62" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G62" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>217</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F63,Días!C:C,G63)</f>
+        <v>296</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>87</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="F63" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G63" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>221</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F64,Días!C:C,G64)</f>
+        <v>296</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>87</v>
+      </c>
+      <c r="C64" t="s">
+        <v>90</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="F64" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G64" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>222</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F65,Días!C:C,G65)</f>
+        <v>298</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="F65" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G65" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>224</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F66,Días!C:C,G66)</f>
+        <v>306</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
         <v>11</v>
-      </c>
-      <c r="G66" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>227</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F67,Días!C:C,G67)</f>
+        <v>308</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>95</v>
+      </c>
+      <c r="C67" t="s">
+        <v>96</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="F67" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G67" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>SUMIFS(Días!A:A,Días!B:B,F68,Días!C:C,G68)</f>
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>97</v>
+      </c>
+      <c r="C68" t="s">
+        <v>98</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="F68" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G68" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>SUMIFS(Días!A:A,Días!B:B,F69,Días!C:C,G69)</f>
-        <v>233</v>
+        <v>322</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="F69" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G69" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>SUMIFS(Días!A:A,Días!B:B,F70,Días!C:C,G70)</f>
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2229,125 +2214,139 @@
         <v>25</v>
       </c>
       <c r="G70" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>239</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F71,Días!C:C,G71)</f>
+        <v>332</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>105</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="F71" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G71" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="F72" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G72" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>278</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F73,Días!C:C,G73)</f>
+        <v>343</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="F73" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G73" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>289</v>
-      </c>
-      <c r="B74" t="s">
-        <v>49</v>
+      <c r="A74" s="4">
+        <v>344</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="F74" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G74" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>SUMIFS(Días!A:A,Días!B:B,F75,Días!C:C,G75)</f>
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>52</v>
+      </c>
+      <c r="C75" t="s">
+        <v>163</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="F75" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G75" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>SUMIFS(Días!A:A,Días!B:B,F76,Días!C:C,G76)</f>
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="F76" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G76" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>338</v>
+        <f>SUMIFS(Días!A:A,Días!B:B,F77,Días!C:C,G77)</f>
+        <v>360</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="F77" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G77" s="2">
         <v>12</v>
@@ -2356,16 +2355,19 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>SUMIFS(Días!A:A,Días!B:B,F78,Días!C:C,G78)</f>
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>116</v>
+      </c>
+      <c r="C78" t="s">
+        <v>117</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="F78" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G78" s="2">
         <v>12</v>
@@ -2373,61 +2375,59 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f>SUMIFS(Días!A:A,Días!B:B,F79,Días!C:C,G79)</f>
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="F79" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G79" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f>SUMIFS(Días!A:A,Días!B:B,F80,Días!C:C,G80)</f>
-        <v>360</v>
-      </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="F80" s="2">
-        <v>25</v>
-      </c>
-      <c r="G80" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>364</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="C81" t="s">
+        <v>103</v>
       </c>
       <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="F81" s="2">
-        <v>29</v>
-      </c>
-      <c r="G81" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>144</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>134</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>146</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>122</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>123</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>127</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>126</v>
       </c>
@@ -2536,8 +2536,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:H88"/>
-  <sortState ref="A2:H42">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:H88">
+    <sortCondition ref="A80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
